--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1369775.537062368</v>
+        <v>-1371856.278455667</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>15.28796821707176</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>206.3825949258809</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>242.2618130803951</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>58.9725839415313</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>92.95002176158476</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>137.081565665098</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>135.1613884042816</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I5" t="n">
         <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052851991</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>10.67483644959642</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>39.32222778163029</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>87.6923398882896</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.0844620270375</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>135.1041822809835</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>55.18703810638445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>11.21959608876315</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.9143862661342</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>325.2563498869366</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>62.65809879609638</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>177.3830154996371</v>
+        <v>106.2746913630535</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.0183419716299</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2345848079164</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>94.31538344158643</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.6006837567287</v>
       </c>
       <c r="H9" t="n">
-        <v>105.061237389684</v>
+        <v>105.0612373896839</v>
       </c>
       <c r="I9" t="n">
-        <v>63.82100898789186</v>
+        <v>63.8210089878918</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54.03700212563233</v>
+        <v>54.03700212563222</v>
       </c>
       <c r="S9" t="n">
         <v>157.8853663825613</v>
@@ -1272,13 +1272,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>96.62147664962498</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>50.60918926601335</v>
       </c>
     </row>
     <row r="10">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>66.70870932014572</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3682127838557</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.6902115077868</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>49.32958329223564</v>
+        <v>49.32958329223553</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.01383490015903</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>149.2915415772895</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>107.2296912123932</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>31.53167077399007</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>73.00837259453999</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.8338438389639</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>19.98005979843108</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>125.5347253921241</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,10 +2087,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722602</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002166</v>
+        <v>42.18007463019129</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>80.72864473718596</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>45.04043182905892</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094036</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407508</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>267.8362668557249</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809755</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937385</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
-        <v>207.3085698461847</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>75.33215874517435</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094042</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155368</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
-        <v>267.8362668557249</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809756</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X28" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.228406697857</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>41.77916877344206</v>
+        <v>148.3813437836666</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.5127428246837</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.56326686094049</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407508</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155368</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
-        <v>267.8362668557249</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461847</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4031,7 +4031,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288.9859744676041</v>
+        <v>250.4201790784511</v>
       </c>
       <c r="C2" t="n">
-        <v>288.9859744676041</v>
+        <v>250.4201790784511</v>
       </c>
       <c r="D2" t="n">
-        <v>288.9859744676041</v>
+        <v>250.4201790784511</v>
       </c>
       <c r="E2" t="n">
-        <v>41.95291147655119</v>
+        <v>250.4201790784511</v>
       </c>
       <c r="F2" t="n">
-        <v>35.00741072734773</v>
+        <v>243.4746783292477</v>
       </c>
       <c r="G2" t="n">
-        <v>19.56501858889139</v>
+        <v>228.0322861907913</v>
       </c>
       <c r="H2" t="n">
         <v>19.56501858889139</v>
@@ -4355,25 +4355,25 @@
         <v>969.7703423957685</v>
       </c>
       <c r="S2" t="n">
-        <v>758.9789139042248</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="T2" t="n">
-        <v>533.6948765690133</v>
+        <v>744.486305060557</v>
       </c>
       <c r="U2" t="n">
-        <v>533.6948765690133</v>
+        <v>497.4532420695041</v>
       </c>
       <c r="V2" t="n">
-        <v>533.6948765690133</v>
+        <v>250.4201790784511</v>
       </c>
       <c r="W2" t="n">
-        <v>533.6948765690133</v>
+        <v>250.4201790784511</v>
       </c>
       <c r="X2" t="n">
-        <v>288.9859744676041</v>
+        <v>250.4201790784511</v>
       </c>
       <c r="Y2" t="n">
-        <v>288.9859744676041</v>
+        <v>250.4201790784511</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400.1208724507408</v>
+        <v>464.059874892797</v>
       </c>
       <c r="C3" t="n">
-        <v>225.6678431696138</v>
+        <v>464.059874892797</v>
       </c>
       <c r="D3" t="n">
-        <v>225.6678431696138</v>
+        <v>464.059874892797</v>
       </c>
       <c r="E3" t="n">
-        <v>225.6678431696138</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="F3" t="n">
-        <v>79.13328519649878</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="G3" t="n">
-        <v>79.13328519649878</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
         <v>19.56501858889139</v>
@@ -4410,10 +4410,10 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>19.56501858889139</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>251.2267644261524</v>
+        <v>377.8476075409625</v>
       </c>
       <c r="M3" t="n">
         <v>481.6032601595283</v>
@@ -4434,25 +4434,25 @@
         <v>978.2509294445697</v>
       </c>
       <c r="S3" t="n">
-        <v>978.2509294445697</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T3" t="n">
-        <v>776.0965082357627</v>
+        <v>711.09293788385</v>
       </c>
       <c r="U3" t="n">
-        <v>776.0965082357627</v>
+        <v>711.09293788385</v>
       </c>
       <c r="V3" t="n">
-        <v>776.0965082357627</v>
+        <v>711.09293788385</v>
       </c>
       <c r="W3" t="n">
-        <v>776.0965082357627</v>
+        <v>464.059874892797</v>
       </c>
       <c r="X3" t="n">
-        <v>776.0965082357627</v>
+        <v>464.059874892797</v>
       </c>
       <c r="Y3" t="n">
-        <v>568.3362094708089</v>
+        <v>464.059874892797</v>
       </c>
     </row>
     <row r="4">
@@ -4504,25 +4504,25 @@
         <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>156.0916735427112</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>156.0916735427112</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>156.0916735427112</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>156.0916735427112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T4" t="n">
-        <v>156.0916735427112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U4" t="n">
-        <v>156.0916735427112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>156.0916735427112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
         <v>19.56501858889139</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>256.5063620977149</v>
+        <v>522.4074064933379</v>
       </c>
       <c r="C5" t="n">
-        <v>256.5063620977149</v>
+        <v>522.4074064933379</v>
       </c>
       <c r="D5" t="n">
-        <v>256.5063620977149</v>
+        <v>522.4074064933379</v>
       </c>
       <c r="E5" t="n">
-        <v>256.5063620977149</v>
+        <v>522.4074064933379</v>
       </c>
       <c r="F5" t="n">
-        <v>249.5608613485115</v>
+        <v>515.4619057441345</v>
       </c>
       <c r="G5" t="n">
-        <v>234.1970013446414</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="H5" t="n">
-        <v>234.1970013446414</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800408</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573685</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142367</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098033</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369341</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885156</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T5" t="n">
-        <v>828.0278728906086</v>
+        <v>1042.185472726266</v>
       </c>
       <c r="U5" t="n">
-        <v>828.0278728906086</v>
+        <v>788.3084508889608</v>
       </c>
       <c r="V5" t="n">
-        <v>828.0278728906086</v>
+        <v>788.3084508889608</v>
       </c>
       <c r="W5" t="n">
-        <v>562.1268284949851</v>
+        <v>788.3084508889608</v>
       </c>
       <c r="X5" t="n">
-        <v>522.4074064933384</v>
+        <v>788.3084508889608</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.4074064933384</v>
+        <v>522.4074064933379</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>730.9432026922351</v>
+        <v>650.2188146370821</v>
       </c>
       <c r="C6" t="n">
-        <v>556.4901734111081</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="D6" t="n">
-        <v>407.5557637498569</v>
+        <v>326.8313756947039</v>
       </c>
       <c r="E6" t="n">
-        <v>248.3183087444013</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="F6" t="n">
-        <v>248.3183087444013</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G6" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H6" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>21.05936271613337</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L6" t="n">
-        <v>79.33446981177667</v>
+        <v>394.933760794076</v>
       </c>
       <c r="M6" t="n">
-        <v>339.9440834239272</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="N6" t="n">
-        <v>600.5536970360777</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="O6" t="n">
-        <v>860.9667611285699</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>954.903022648045</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S6" t="n">
-        <v>954.903022648045</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T6" t="n">
-        <v>954.903022648045</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U6" t="n">
-        <v>954.903022648045</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="V6" t="n">
-        <v>954.903022648045</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="W6" t="n">
-        <v>954.903022648045</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="X6" t="n">
-        <v>954.903022648045</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="Y6" t="n">
-        <v>899.1585397123031</v>
+        <v>818.4341516571501</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C7" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>32.39228805831837</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>32.39228805831837</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>32.39228805831837</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>32.39228805831837</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>32.39228805831837</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>32.39228805831837</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
-        <v>32.39228805831837</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360313</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955242</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0877739486502</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716489</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W7" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X7" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.06793498361</v>
+        <v>1162.781045907524</v>
       </c>
       <c r="C8" t="n">
-        <v>1624.06793498361</v>
+        <v>1162.781045907524</v>
       </c>
       <c r="D8" t="n">
-        <v>1265.802236376859</v>
+        <v>804.515347300773</v>
       </c>
       <c r="E8" t="n">
-        <v>880.0139837786148</v>
+        <v>804.515347300773</v>
       </c>
       <c r="F8" t="n">
-        <v>469.0280789890072</v>
+        <v>797.5698465515695</v>
       </c>
       <c r="G8" t="n">
-        <v>50.93273932624535</v>
+        <v>379.4745068888076</v>
       </c>
       <c r="H8" t="n">
-        <v>50.93273932624535</v>
+        <v>50.93273932624543</v>
       </c>
       <c r="I8" t="n">
-        <v>50.93273932624535</v>
+        <v>50.93273932624543</v>
       </c>
       <c r="J8" t="n">
         <v>155.7591739168711</v>
       </c>
       <c r="K8" t="n">
-        <v>433.611630165992</v>
+        <v>433.6116301659922</v>
       </c>
       <c r="L8" t="n">
-        <v>830.5887990800943</v>
+        <v>830.588799080095</v>
       </c>
       <c r="M8" t="n">
-        <v>1288.908934281618</v>
+        <v>1288.908934281619</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.013170883838</v>
+        <v>1740.01317088384</v>
       </c>
       <c r="O8" t="n">
-        <v>2120.790471866537</v>
+        <v>2120.79047186654</v>
       </c>
       <c r="P8" t="n">
-        <v>2408.100705753526</v>
+        <v>2408.100705753529</v>
       </c>
       <c r="Q8" t="n">
-        <v>2546.636966312268</v>
+        <v>2546.636966312271</v>
       </c>
       <c r="R8" t="n">
-        <v>2483.345957427322</v>
+        <v>2546.636966312271</v>
       </c>
       <c r="S8" t="n">
-        <v>2304.171194296375</v>
+        <v>2439.288793218278</v>
       </c>
       <c r="T8" t="n">
-        <v>2304.171194296375</v>
+        <v>2220.078346782288</v>
       </c>
       <c r="U8" t="n">
-        <v>2050.398886409591</v>
+        <v>2220.078346782288</v>
       </c>
       <c r="V8" t="n">
-        <v>1719.33599906602</v>
+        <v>1889.015459438717</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.06793498361</v>
+        <v>1536.246804168603</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.06793498361</v>
+        <v>1162.781045907524</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.06793498361</v>
+        <v>1162.781045907524</v>
       </c>
     </row>
     <row r="9">
@@ -4869,7 +4869,7 @@
         <v>506.0359135966377</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5013556235227</v>
+        <v>359.5013556235226</v>
       </c>
       <c r="G9" t="n">
         <v>221.5208669803624</v>
@@ -4878,52 +4878,52 @@
         <v>115.3984049705806</v>
       </c>
       <c r="I9" t="n">
-        <v>50.93273932624535</v>
+        <v>50.93273932624543</v>
       </c>
       <c r="J9" t="n">
-        <v>50.93273932624535</v>
+        <v>50.93273932624543</v>
       </c>
       <c r="K9" t="n">
-        <v>295.0420912752294</v>
+        <v>295.0420912752297</v>
       </c>
       <c r="L9" t="n">
-        <v>684.6816362225695</v>
+        <v>684.6816362225703</v>
       </c>
       <c r="M9" t="n">
-        <v>1191.351828706383</v>
+        <v>1191.351828706384</v>
       </c>
       <c r="N9" t="n">
-        <v>1727.139086928489</v>
+        <v>1727.139086928491</v>
       </c>
       <c r="O9" t="n">
-        <v>2150.864075413381</v>
+        <v>2150.864075413383</v>
       </c>
       <c r="P9" t="n">
-        <v>2473.937667249964</v>
+        <v>2473.937667249967</v>
       </c>
       <c r="Q9" t="n">
-        <v>2546.636966312268</v>
+        <v>2546.636966312271</v>
       </c>
       <c r="R9" t="n">
-        <v>2492.054135882336</v>
+        <v>2492.05413588234</v>
       </c>
       <c r="S9" t="n">
-        <v>2332.573967819143</v>
+        <v>2332.573967819147</v>
       </c>
       <c r="T9" t="n">
-        <v>2133.411756930155</v>
+        <v>2133.411756930158</v>
       </c>
       <c r="U9" t="n">
-        <v>1905.237502928006</v>
+        <v>1905.23750292801</v>
       </c>
       <c r="V9" t="n">
-        <v>1670.085394696263</v>
+        <v>1670.085394696267</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.487943535026</v>
+        <v>1415.848037968065</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.636443329493</v>
+        <v>1207.996537762533</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.876144564539</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>642.3648251110485</v>
+        <v>417.6098777478945</v>
       </c>
       <c r="C10" t="n">
-        <v>642.3648251110485</v>
+        <v>248.6736948199876</v>
       </c>
       <c r="D10" t="n">
-        <v>642.3648251110485</v>
+        <v>248.6736948199876</v>
       </c>
       <c r="E10" t="n">
-        <v>574.9822904442346</v>
+        <v>100.7606012375945</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0923429463243</v>
+        <v>100.7606012375945</v>
       </c>
       <c r="G10" t="n">
-        <v>259.0335421545509</v>
+        <v>100.7606012375945</v>
       </c>
       <c r="H10" t="n">
         <v>100.7606012375945</v>
@@ -4960,52 +4960,52 @@
         <v>100.7606012375945</v>
       </c>
       <c r="J10" t="n">
-        <v>50.93273932624535</v>
+        <v>50.93273932624543</v>
       </c>
       <c r="K10" t="n">
-        <v>100.5165538294666</v>
+        <v>100.5165538294668</v>
       </c>
       <c r="L10" t="n">
-        <v>219.4931998867072</v>
+        <v>219.4931998867077</v>
       </c>
       <c r="M10" t="n">
-        <v>355.3265144918562</v>
+        <v>355.3265144918569</v>
       </c>
       <c r="N10" t="n">
-        <v>493.364632899934</v>
+        <v>493.3646328999349</v>
       </c>
       <c r="O10" t="n">
-        <v>604.8488818521903</v>
+        <v>604.8488818521914</v>
       </c>
       <c r="P10" t="n">
-        <v>676.7222341011081</v>
+        <v>676.7222341011095</v>
       </c>
       <c r="Q10" t="n">
-        <v>642.3648251110485</v>
+        <v>676.7222341011095</v>
       </c>
       <c r="R10" t="n">
-        <v>642.3648251110485</v>
+        <v>525.9226971543524</v>
       </c>
       <c r="S10" t="n">
-        <v>642.3648251110485</v>
+        <v>417.6098777478945</v>
       </c>
       <c r="T10" t="n">
-        <v>642.3648251110485</v>
+        <v>417.6098777478945</v>
       </c>
       <c r="U10" t="n">
-        <v>642.3648251110485</v>
+        <v>417.6098777478945</v>
       </c>
       <c r="V10" t="n">
-        <v>642.3648251110485</v>
+        <v>417.6098777478945</v>
       </c>
       <c r="W10" t="n">
-        <v>642.3648251110485</v>
+        <v>417.6098777478945</v>
       </c>
       <c r="X10" t="n">
-        <v>642.3648251110485</v>
+        <v>417.6098777478945</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.3648251110485</v>
+        <v>417.6098777478945</v>
       </c>
     </row>
     <row r="11">
@@ -5027,37 +5027,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,7 +5075,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405894</v>
+        <v>444.8933943850828</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405894</v>
+        <v>275.957211457176</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405894</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
         <v>244.1070389581962</v>
@@ -5197,13 +5197,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471189</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811258</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441652</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X13" t="n">
-        <v>392.0201325405894</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.0201325405894</v>
+        <v>444.8933943850828</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,25 +5270,25 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,19 +5303,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590536</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>544.6416868225887</v>
+        <v>713.8401545872507</v>
       </c>
       <c r="C16" t="n">
-        <v>544.6416868225887</v>
+        <v>713.8401545872507</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>563.723515174915</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
         <v>247.6350999123425</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655733</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286127</v>
+        <v>954.8146123150547</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286127</v>
+        <v>934.6327337307808</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286127</v>
+        <v>713.8401545872507</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,19 +5525,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>882.7763375151571</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>713.8401545872503</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749146</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1172.193507552118</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1172.193507552118</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1172.193507552118</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>882.7763375151571</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>882.7763375151571</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>882.7763375151571</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1456.310134567811</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1456.310134567811</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011509</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>877.7643257444086</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>649.7747748463912</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028612</v>
       </c>
     </row>
     <row r="23">
@@ -5990,13 +5990,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6029,10 +6029,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>178.7611770534029</v>
+        <v>274.2421614647496</v>
       </c>
       <c r="C25" t="n">
-        <v>178.7611770534029</v>
+        <v>274.2421614647496</v>
       </c>
       <c r="D25" t="n">
-        <v>178.7611770534029</v>
+        <v>142.712477146204</v>
       </c>
       <c r="E25" t="n">
-        <v>178.7611770534029</v>
+        <v>142.712477146204</v>
       </c>
       <c r="F25" t="n">
-        <v>178.7611770534029</v>
+        <v>142.712477146204</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>142.712477146204</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>142.712477146204</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116194</v>
       </c>
       <c r="K25" t="n">
-        <v>296.219337543655</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422082</v>
+        <v>562.1484572422077</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968149</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N25" t="n">
-        <v>1140.693458411787</v>
+        <v>1140.693458411786</v>
       </c>
       <c r="O25" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q25" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1552.16471971291</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1370.831664722252</v>
+        <v>1463.319813066635</v>
       </c>
       <c r="T25" t="n">
-        <v>1165.633204605548</v>
+        <v>1463.319813066635</v>
       </c>
       <c r="U25" t="n">
-        <v>895.0915209128967</v>
+        <v>1192.778129373984</v>
       </c>
       <c r="V25" t="n">
-        <v>658.9939878008001</v>
+        <v>956.6805962618871</v>
       </c>
       <c r="W25" t="n">
-        <v>388.1637728576299</v>
+        <v>685.8503813187167</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7611770534029</v>
+        <v>476.4477855144895</v>
       </c>
       <c r="Y25" t="n">
-        <v>178.7611770534029</v>
+        <v>274.2421614647496</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>225.5200838644059</v>
+        <v>305.1412344601426</v>
       </c>
       <c r="C28" t="n">
-        <v>225.5200838644059</v>
+        <v>305.1412344601426</v>
       </c>
       <c r="D28" t="n">
-        <v>225.5200838644059</v>
+        <v>305.1412344601426</v>
       </c>
       <c r="E28" t="n">
-        <v>225.5200838644059</v>
+        <v>305.1412344601426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>305.1412344601426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>229.0481448185523</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116199</v>
       </c>
       <c r="K28" t="n">
         <v>296.2193375436549</v>
       </c>
       <c r="L28" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968146</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P28" t="n">
         <v>1587.602350397713</v>
@@ -6406,28 +6406,28 @@
         <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1552.164719712909</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.164719712909</v>
+        <v>1463.319813066635</v>
       </c>
       <c r="T28" t="n">
-        <v>1346.966259596205</v>
+        <v>1258.121352949931</v>
       </c>
       <c r="U28" t="n">
-        <v>1076.424575903553</v>
+        <v>987.5796692572801</v>
       </c>
       <c r="V28" t="n">
-        <v>840.3270427914568</v>
+        <v>987.5796692572801</v>
       </c>
       <c r="W28" t="n">
-        <v>569.4968278482866</v>
+        <v>716.7494543141097</v>
       </c>
       <c r="X28" t="n">
-        <v>360.0942320440595</v>
+        <v>507.3468585098825</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.5200838644059</v>
+        <v>305.1412344601426</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,25 +6528,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>271.2493253977867</v>
+        <v>247.0972366963128</v>
       </c>
       <c r="C31" t="n">
-        <v>229.0481448185523</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>229.0481448185523</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>229.0481448185523</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>229.0481448185523</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>229.0481448185523</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116194</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L31" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422077</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968148</v>
+        <v>851.9322746968141</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q31" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057294</v>
+        <v>1552.164719712908</v>
       </c>
       <c r="S31" t="n">
-        <v>1463.319813066636</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T31" t="n">
-        <v>1258.121352949932</v>
+        <v>1165.633204605547</v>
       </c>
       <c r="U31" t="n">
-        <v>987.5796692572807</v>
+        <v>1165.633204605547</v>
       </c>
       <c r="V31" t="n">
-        <v>751.4821361451841</v>
+        <v>929.5356714934503</v>
       </c>
       <c r="W31" t="n">
-        <v>480.6519212020138</v>
+        <v>658.7054565502799</v>
       </c>
       <c r="X31" t="n">
-        <v>271.2493253977867</v>
+        <v>449.3028607460527</v>
       </c>
       <c r="Y31" t="n">
-        <v>271.2493253977867</v>
+        <v>247.0972366963128</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028583</v>
@@ -6859,10 +6859,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7020,22 +7020,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7421,16 +7421,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7549,31 +7549,31 @@
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010315</v>
@@ -7643,7 +7643,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
@@ -7655,7 +7655,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619127</v>
@@ -7670,22 +7670,22 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7713,25 +7713,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>136.5653954824675</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>372.8353096890153</v>
+        <v>244.9354681589041</v>
       </c>
       <c r="N3" t="n">
         <v>129.2864630672354</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114201</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236086</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>186.6702232840456</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>392.833774309385</v>
+        <v>337.2886456526674</v>
       </c>
       <c r="N6" t="n">
-        <v>381.7094952808122</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.6630807868108</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>56.65615996040508</v>
+        <v>56.65615996040491</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.5933767733203</v>
+        <v>118.593376773321</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P12" t="n">
-        <v>43.65987261462561</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711656</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119848</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>117.0838022442223</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>152.7012827944972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.99813634297335</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>205.7295955906061</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338612</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>96.01283566626529</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338672</v>
+        <v>155.7407353534119</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.4308946390848</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557754</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
-        <v>130.2143874753599</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037167</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800788</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>67.36383818333917</v>
+        <v>148.0924829205253</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246837</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141955</v>
+        <v>46.97772809236076</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.56326686094049</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.4308946390849</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557754</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D28" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037168</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>72.76032417535092</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246837</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141961</v>
+        <v>92.01815992141968</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.56326686094049</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.95516111138541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.4308946390849</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C31" t="n">
-        <v>107.0665667823334</v>
+        <v>0.4643917721088826</v>
       </c>
       <c r="D31" t="n">
-        <v>130.2143874753599</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037167</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800788</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205252</v>
+        <v>148.0924829205253</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141958</v>
+        <v>92.01815992141968</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094039</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262497</v>
@@ -26323,13 +26323,13 @@
         <v>136860.1709081982</v>
       </c>
       <c r="F2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="G2" t="n">
         <v>136860.1709081981</v>
       </c>
       <c r="H2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="I2" t="n">
         <v>138702.6966290804</v>
@@ -26347,13 +26347,13 @@
         <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.3401818957</v>
+        <v>23645.34018189508</v>
       </c>
       <c r="D3" t="n">
-        <v>392050.2114169277</v>
+        <v>392050.2114169293</v>
       </c>
       <c r="E3" t="n">
-        <v>562418.1991553669</v>
+        <v>562418.199155366</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.203198038041591e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.868434282</v>
+        <v>14720.8684342818</v>
       </c>
       <c r="J3" t="n">
-        <v>63988.37154589872</v>
+        <v>63988.37154589876</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750195</v>
+        <v>4807.454491749968</v>
       </c>
       <c r="L3" t="n">
-        <v>134293.1781648037</v>
+        <v>134293.1781648043</v>
       </c>
       <c r="M3" t="n">
-        <v>144178.0711151429</v>
+        <v>144178.0711151427</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428195</v>
+        <v>14720.86843428182</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>311285.4917481207</v>
       </c>
       <c r="C4" t="n">
-        <v>304469.3167485494</v>
+        <v>304469.3167485495</v>
       </c>
       <c r="D4" t="n">
-        <v>186365.8251915761</v>
+        <v>186365.8251915757</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26433,13 +26433,13 @@
         <v>29303.54555230239</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230236</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>35358.41972370123</v>
+        <v>35358.41972370118</v>
       </c>
       <c r="J4" t="n">
-        <v>35358.4197237012</v>
+        <v>35358.41972370118</v>
       </c>
       <c r="K4" t="n">
         <v>35358.41972370121</v>
@@ -26448,16 +26448,16 @@
         <v>51722.33279362286</v>
       </c>
       <c r="M4" t="n">
+        <v>51722.33279362283</v>
+      </c>
+      <c r="N4" t="n">
+        <v>51722.33279362284</v>
+      </c>
+      <c r="O4" t="n">
+        <v>51722.33279362283</v>
+      </c>
+      <c r="P4" t="n">
         <v>51722.33279362282</v>
-      </c>
-      <c r="N4" t="n">
-        <v>51722.3327936228</v>
-      </c>
-      <c r="O4" t="n">
-        <v>51722.33279362284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>51722.33279362287</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683338</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>79865.16362346614</v>
+        <v>79865.16362346621</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,16 +26485,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.28680921867</v>
       </c>
       <c r="J5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.28680921867</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.28680921867</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002538</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301679.0649617103</v>
+        <v>-301679.0649617104</v>
       </c>
       <c r="C6" t="n">
-        <v>-234566.7546110288</v>
+        <v>-234566.7546110283</v>
       </c>
       <c r="D6" t="n">
-        <v>-514598.8905057203</v>
+        <v>-514598.8905057216</v>
       </c>
       <c r="E6" t="n">
-        <v>-546848.8997481876</v>
+        <v>-546946.3588741589</v>
       </c>
       <c r="F6" t="n">
-        <v>15569.29940717916</v>
+        <v>15471.84028120706</v>
       </c>
       <c r="G6" t="n">
-        <v>15569.29940717913</v>
+        <v>15471.84028120691</v>
       </c>
       <c r="H6" t="n">
-        <v>15569.29940717922</v>
+        <v>15471.8402812071</v>
       </c>
       <c r="I6" t="n">
-        <v>-4910.878338121489</v>
+        <v>-4982.01566808079</v>
       </c>
       <c r="J6" t="n">
-        <v>-54178.38144973819</v>
+        <v>-54249.51877969774</v>
       </c>
       <c r="K6" t="n">
-        <v>5002.535604410339</v>
+        <v>4931.398274451024</v>
       </c>
       <c r="L6" t="n">
-        <v>-140048.3070522022</v>
+        <v>-140048.3070522028</v>
       </c>
       <c r="M6" t="n">
-        <v>-149933.2000025414</v>
+        <v>-149933.2000025413</v>
       </c>
       <c r="N6" t="n">
         <v>-20475.99732168044</v>
@@ -26561,7 +26561,7 @@
         <v>-5755.128887398649</v>
       </c>
       <c r="P6" t="n">
-        <v>-5755.128887398561</v>
+        <v>-5755.128887398634</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.161826604511587e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26738,19 +26738,19 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678986</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>345.3523731889759</v>
+        <v>345.3523731889767</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>636.6592415780669</v>
+        <v>636.6592415780678</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,28 +26920,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428525</v>
+        <v>18.40108554285225</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678824</v>
+        <v>49.73080458678843</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285243</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>19.33951979354754</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="D3" t="n">
-        <v>322.338990502186</v>
+        <v>322.3389905021874</v>
       </c>
       <c r="E3" t="n">
-        <v>485.0300322651242</v>
+        <v>485.0300322651235</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67930159052474</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="D4" t="n">
-        <v>373.4172076263997</v>
+        <v>373.4172076264013</v>
       </c>
       <c r="E4" t="n">
-        <v>578.5544016755061</v>
+        <v>578.5544016755052</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052474</v>
+        <v>18.67930159052395</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076263995</v>
+        <v>373.4172076264013</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755064</v>
+        <v>578.5544016755057</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.4010855428525</v>
+        <v>18.40108554285225</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052474</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076263997</v>
+        <v>373.4172076264013</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755061</v>
+        <v>578.5544016755052</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>137.3676377111194</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>132.9409511160956</v>
       </c>
       <c r="I2" t="n">
         <v>209.9064962068211</v>
@@ -27427,22 +27427,22 @@
         <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>6.781739002849009</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>83.18952610899248</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>127.4692875980739</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.18654099222064</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
         <v>89.12455904281175</v>
@@ -27506,10 +27506,10 @@
         <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>107.1828552351341</v>
       </c>
       <c r="U3" t="n">
         <v>225.9408621947163</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777182</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
         <v>85.60728995481479</v>
@@ -27585,7 +27585,7 @@
         <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>86.81957671340956</v>
       </c>
       <c r="T4" t="n">
         <v>227.9172826158254</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>151.3616099323094</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.4918077118134</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.05760276447</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.0160238373031</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.99893476574584</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>330.4088728968387</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>90.83394318923371</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>150.4956576709199</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,13 +27792,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839138</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
-        <v>6.228403429952914</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598912</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366963</v>
+        <v>15.59235192972142</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908972</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
         <v>227.7682732010226</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>325.2563498869366</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>156.9514780432984</v>
+        <v>156.9514780432983</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>62.65809879609616</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>71.10832413658359</v>
       </c>
       <c r="T8" t="n">
-        <v>217.0183419716299</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2345848079164</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>254.9255852758266</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>155.0735065112946</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>155.073506511291</v>
       </c>
     </row>
     <row r="10">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>79.72525332642346</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3682127838557</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.6902115077868</v>
       </c>
       <c r="I10" t="n">
-        <v>136.7221855746496</v>
+        <v>136.7221855746495</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>34.0138349001589</v>
       </c>
       <c r="R10" t="n">
-        <v>149.2915415772896</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>213.1634750959351</v>
+        <v>105.9337838835418</v>
       </c>
       <c r="T10" t="n">
         <v>225.284677700432</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>6.161826604511587e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.534772309241816e-12</v>
+        <v>6.161826604511587e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285231</v>
       </c>
     </row>
     <row r="26">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285231</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285231</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367775</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887899</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I5" t="n">
-        <v>3.56672738103504</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760526</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324521</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455514</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895192</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019349</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841755</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P5" t="n">
-        <v>13.303932450608</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214545037</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679652</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332559</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318495</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294218</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498196</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104837</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125476</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246607</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750399</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688238</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430047</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418822</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104047</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523179</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.31869329921068</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605635</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705524055</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467912</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564604</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994892</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259097</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047555</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281388</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166792</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471498</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M7" t="n">
-        <v>6.50524192898881</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815848097</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150964</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037132002</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705268</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473157</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750187</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588726</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815398</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.388351249000907</v>
+        <v>1.38835124900091</v>
       </c>
       <c r="H8" t="n">
-        <v>14.21845222883054</v>
+        <v>14.21845222883058</v>
       </c>
       <c r="I8" t="n">
-        <v>53.52441152710752</v>
+        <v>53.52441152710765</v>
       </c>
       <c r="J8" t="n">
-        <v>117.8345768198908</v>
+        <v>117.8345768198911</v>
       </c>
       <c r="K8" t="n">
-        <v>176.6034851900993</v>
+        <v>176.6034851900997</v>
       </c>
       <c r="L8" t="n">
-        <v>219.0922397267108</v>
+        <v>219.0922397267114</v>
       </c>
       <c r="M8" t="n">
-        <v>243.7823312511307</v>
+        <v>243.7823312511313</v>
       </c>
       <c r="N8" t="n">
-        <v>247.7269842373545</v>
+        <v>247.7269842373552</v>
       </c>
       <c r="O8" t="n">
-        <v>233.9215665051018</v>
+        <v>233.9215665051023</v>
       </c>
       <c r="P8" t="n">
-        <v>199.6466450453918</v>
+        <v>199.6466450453923</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.9263159405468</v>
+        <v>149.9263159405472</v>
       </c>
       <c r="R8" t="n">
-        <v>87.2110191450533</v>
+        <v>87.21101914505353</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6370540866082</v>
+        <v>31.63705408660828</v>
       </c>
       <c r="T8" t="n">
-        <v>6.077507592501473</v>
+        <v>6.077507592501489</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1110680999200725</v>
+        <v>0.1110680999200728</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7428334064819482</v>
+        <v>0.74283340648195</v>
       </c>
       <c r="H9" t="n">
-        <v>7.174206846812501</v>
+        <v>7.174206846812518</v>
       </c>
       <c r="I9" t="n">
-        <v>25.57562386352322</v>
+        <v>25.57562386352328</v>
       </c>
       <c r="J9" t="n">
-        <v>70.18146670626162</v>
+        <v>70.18146670626179</v>
       </c>
       <c r="K9" t="n">
-        <v>119.9513049405521</v>
+        <v>119.9513049405524</v>
       </c>
       <c r="L9" t="n">
-        <v>161.2893324030213</v>
+        <v>161.2893324030217</v>
       </c>
       <c r="M9" t="n">
-        <v>188.2170433879918</v>
+        <v>188.2170433879923</v>
       </c>
       <c r="N9" t="n">
-        <v>193.19858846918</v>
+        <v>193.1985884691805</v>
       </c>
       <c r="O9" t="n">
-        <v>176.7389640413432</v>
+        <v>176.7389640413436</v>
       </c>
       <c r="P9" t="n">
-        <v>141.8486002254871</v>
+        <v>141.8486002254875</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.82203272916939</v>
+        <v>94.82203272916962</v>
       </c>
       <c r="R9" t="n">
-        <v>46.1208320270108</v>
+        <v>46.12083202701091</v>
       </c>
       <c r="S9" t="n">
-        <v>13.79780472127653</v>
+        <v>13.79780472127656</v>
       </c>
       <c r="T9" t="n">
-        <v>2.99413991472329</v>
+        <v>2.994139914723297</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04887061884749661</v>
+        <v>0.04887061884749673</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6227665746030712</v>
+        <v>0.6227665746030727</v>
       </c>
       <c r="H10" t="n">
-        <v>5.536960999652765</v>
+        <v>5.536960999652778</v>
       </c>
       <c r="I10" t="n">
-        <v>18.72828935260873</v>
+        <v>18.72828935260878</v>
       </c>
       <c r="J10" t="n">
-        <v>44.02959682443714</v>
+        <v>44.02959682443724</v>
       </c>
       <c r="K10" t="n">
-        <v>72.35415294024772</v>
+        <v>72.35415294024789</v>
       </c>
       <c r="L10" t="n">
-        <v>92.58840510053298</v>
+        <v>92.58840510053321</v>
       </c>
       <c r="M10" t="n">
-        <v>97.62149132618869</v>
+        <v>97.62149132618893</v>
       </c>
       <c r="N10" t="n">
-        <v>95.30027045721368</v>
+        <v>95.30027045721391</v>
       </c>
       <c r="O10" t="n">
-        <v>88.02522456298686</v>
+        <v>88.02522456298708</v>
       </c>
       <c r="P10" t="n">
-        <v>75.32078644108415</v>
+        <v>75.32078644108434</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.14820835153536</v>
+        <v>52.14820835153549</v>
       </c>
       <c r="R10" t="n">
-        <v>28.0018497998799</v>
+        <v>28.00184979987997</v>
       </c>
       <c r="S10" t="n">
-        <v>10.85312294103715</v>
+        <v>10.85312294103718</v>
       </c>
       <c r="T10" t="n">
-        <v>2.660911727849486</v>
+        <v>2.660911727849492</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03396908588744028</v>
+        <v>0.03396908588744037</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
         <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>232.703531043814</v>
+        <v>104.8036895137028</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194294</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150183</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945117</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455867</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894762</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8696448668211</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.327027459614328e-13</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>58.86374454105383</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>263.2420339516672</v>
+        <v>207.6969052949493</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833256</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031301</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178763</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M7" t="n">
-        <v>46.0891188908294</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507669</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919064</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P7" t="n">
-        <v>2.29774030202549</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.8852874652783</v>
+        <v>105.8852874652786</v>
       </c>
       <c r="K8" t="n">
-        <v>280.6590467162835</v>
+        <v>280.6590467162839</v>
       </c>
       <c r="L8" t="n">
-        <v>400.987039307174</v>
+        <v>400.9870393071745</v>
       </c>
       <c r="M8" t="n">
-        <v>462.9496315166905</v>
+        <v>462.9496315166911</v>
       </c>
       <c r="N8" t="n">
-        <v>455.6608450527478</v>
+        <v>455.6608450527484</v>
       </c>
       <c r="O8" t="n">
-        <v>384.6235363461604</v>
+        <v>384.623536346161</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2123574616049</v>
+        <v>290.2123574616054</v>
       </c>
       <c r="Q8" t="n">
-        <v>139.935616726002</v>
+        <v>139.9356167260024</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>246.5751029787717</v>
+        <v>246.575102978772</v>
       </c>
       <c r="L9" t="n">
-        <v>393.5752979266063</v>
+        <v>393.5752979266067</v>
       </c>
       <c r="M9" t="n">
-        <v>511.7880732159734</v>
+        <v>511.7880732159739</v>
       </c>
       <c r="N9" t="n">
-        <v>541.1992507294002</v>
+        <v>541.1992507294008</v>
       </c>
       <c r="O9" t="n">
-        <v>428.0050388736282</v>
+        <v>428.0050388736287</v>
       </c>
       <c r="P9" t="n">
-        <v>326.336961451094</v>
+        <v>326.3369614510944</v>
       </c>
       <c r="Q9" t="n">
-        <v>73.43363541646814</v>
+        <v>73.43363541646906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>50.08466111436486</v>
+        <v>50.08466111436503</v>
       </c>
       <c r="L10" t="n">
-        <v>120.1784303608491</v>
+        <v>120.1784303608493</v>
       </c>
       <c r="M10" t="n">
-        <v>137.2053682880293</v>
+        <v>137.2053682880295</v>
       </c>
       <c r="N10" t="n">
-        <v>139.4324428364423</v>
+        <v>139.4324428364425</v>
       </c>
       <c r="O10" t="n">
-        <v>112.6103524770265</v>
+        <v>112.6103524770268</v>
       </c>
       <c r="P10" t="n">
-        <v>72.59934570597764</v>
+        <v>72.59934570597783</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P12" t="n">
-        <v>250.7532875461502</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556561</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556558</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841796</v>
+        <v>30.90885570841783</v>
       </c>
       <c r="K25" t="n">
-        <v>170.103514072763</v>
+        <v>170.1035140727629</v>
       </c>
       <c r="L25" t="n">
-        <v>268.6152724227809</v>
+        <v>268.6152724227808</v>
       </c>
       <c r="M25" t="n">
-        <v>292.710926721825</v>
+        <v>292.7109267218248</v>
       </c>
       <c r="N25" t="n">
-        <v>291.677963348456</v>
+        <v>291.6779633484559</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634551</v>
       </c>
       <c r="P25" t="n">
-        <v>196.7846861546532</v>
+        <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472719</v>
+        <v>57.62678551472706</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841791</v>
+        <v>30.90885570841783</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L28" t="n">
-        <v>268.6152724227809</v>
+        <v>268.6152724227808</v>
       </c>
       <c r="M28" t="n">
-        <v>292.7109267218249</v>
+        <v>292.7109267218248</v>
       </c>
       <c r="N28" t="n">
-        <v>291.677963348456</v>
+        <v>291.6779633484559</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634551</v>
       </c>
       <c r="P28" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472713</v>
+        <v>57.62678551472706</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841793</v>
+        <v>30.90885570841783</v>
       </c>
       <c r="K31" t="n">
-        <v>170.103514072763</v>
+        <v>170.1035140727629</v>
       </c>
       <c r="L31" t="n">
-        <v>268.6152724227809</v>
+        <v>268.6152724227808</v>
       </c>
       <c r="M31" t="n">
-        <v>292.7109267218249</v>
+        <v>292.7109267218248</v>
       </c>
       <c r="N31" t="n">
-        <v>291.677963348456</v>
+        <v>291.6779633484559</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634551</v>
       </c>
       <c r="P31" t="n">
-        <v>196.7846861546532</v>
+        <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472716</v>
+        <v>57.62678551472706</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,13 +37552,13 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
